--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -1121,7 +1254,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1137,13 +1270,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1191,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1202,17 +1203,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1243,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1238,11 +1281,101 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.13</v>
@@ -1254,14 +1387,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1270,7 +1403,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -1286,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1403,14 +1490,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1419,7 +1628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -1435,13 +1644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.12</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -688,26 +704,102 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +834,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,22 +874,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -820,22 +912,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.94</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0522</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -848,6 +940,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1048,138 +1272,6 @@
       </c>
       <c r="H5" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1306,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1254,22 +1346,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0672</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1292,22 +1384,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.85</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0672</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1325,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1438,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1386,26 +1478,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1424,102 +1516,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.95</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519981</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011706</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信美国标准普尔100等权重指数增强(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.70</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1533,144 +1549,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.12</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,11 +537,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.13</v>
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,7 +569,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）人民币 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）美元A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519981</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信美国标准普尔100等权重指数增强（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012865</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普医疗保健指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,138 +1253,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1006,26 +1327,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1044,26 +1365,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1072,6 +1393,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1272,138 +1725,6 @@
       </c>
       <c r="H5" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1478,26 +1799,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1516,26 +1837,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1544,6 +1865,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/MRK-默克.xlsx
+++ b/数据整理/stocks/其他/MRK-默克.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +538,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -553,11 +554,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.13</v>
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +586,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -616,7 +633,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>016280</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016281</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1253,138 +1610,6 @@
       </c>
       <c r="H5" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1459,26 +1684,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1497,26 +1722,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.01</t>
+          <t>81.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0672</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1525,6 +1750,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000369</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000370</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球医疗保健(QDII) - 美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1725,138 +2082,6 @@
       </c>
       <c r="H5" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000369</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000370</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球医疗保健(QDII) - 美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1931,26 +2156,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1969,26 +2194,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0525</t>
+          <t>0.0522</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2004,51 +2229,51 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2068,25 +2293,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2106,24 +2331,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>91.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0581</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>